--- a/SelectivityModels/models/Regression/OUTPUT/EvaluationResults.xlsx
+++ b/SelectivityModels/models/Regression/OUTPUT/EvaluationResults.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7017853674221736</v>
+        <v>0.7025693054032662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05539921046870002</v>
+        <v>0.05543606843201483</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8714027606329254</v>
+        <v>0.8703512512624846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01928985900571931</v>
+        <v>0.02373528245755575</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9268499831901097</v>
+        <v>0.9232680360089499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05345839886377236</v>
+        <v>0.05040732636584883</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5292507957728546</v>
+        <v>0.5233763687293099</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07574081550115198</v>
+        <v>0.09329568105429881</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9852640000000001</v>
+        <v>0.9854839999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01179065281812466</v>
+        <v>0.009426522721144038</v>
       </c>
     </row>
     <row r="7">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6696811250736181</v>
+        <v>0.6636276502512104</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06328596393660281</v>
+        <v>0.07867142953880846</v>
       </c>
     </row>
     <row r="8">
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8575335366603589</v>
+        <v>0.8558668907595055</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02469702221304862</v>
+        <v>0.02947098778840414</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7948776457110678</v>
+        <v>0.7916072963737392</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03701279892766429</v>
+        <v>0.04601568035330826</v>
       </c>
     </row>
     <row r="10">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7572568216170356</v>
+        <v>0.754429368975313</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03637870647400882</v>
+        <v>0.04683649585922914</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6361395597665507</v>
+        <v>0.6306377336986995</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05840543525939285</v>
+        <v>0.07587842462280164</v>
       </c>
     </row>
     <row r="12">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.86331</v>
+        <v>0.8622700000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01992279230081027</v>
+        <v>0.02323600522412385</v>
       </c>
     </row>
     <row r="13">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7572568216170356</v>
+        <v>0.754429368975313</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03637870647400882</v>
+        <v>0.04683649585922915</v>
       </c>
     </row>
   </sheetData>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6890872292139747</v>
+        <v>0.6902480971282161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0673197015222497</v>
+        <v>0.05065605338441074</v>
       </c>
     </row>
     <row r="3">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8785602064863651</v>
+        <v>0.8803669621815732</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02241214501265465</v>
+        <v>0.0254031261764852</v>
       </c>
     </row>
     <row r="4">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9325113335730244</v>
+        <v>0.917351603102431</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05844603796107307</v>
+        <v>0.05155810095693884</v>
       </c>
     </row>
     <row r="5">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5566503374076903</v>
+        <v>0.5718070834394363</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08404731608806176</v>
+        <v>0.09091321025776683</v>
       </c>
     </row>
     <row r="6">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9856519999999999</v>
+        <v>0.9828880000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01338606098041648</v>
+        <v>0.01060320783190306</v>
       </c>
     </row>
     <row r="7">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6925221418999058</v>
+        <v>0.7008704328115608</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07059859446722598</v>
+        <v>0.0757800303999466</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8663773714964254</v>
+        <v>0.8692345226512308</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02764724045110984</v>
+        <v>0.03016463394799619</v>
       </c>
     </row>
     <row r="9">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8083781737202649</v>
+        <v>0.8130062987750296</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04161781006829129</v>
+        <v>0.04528056898934198</v>
       </c>
     </row>
     <row r="10">
@@ -820,10 +820,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7711506318383939</v>
+        <v>0.7773466853498074</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04140168544504407</v>
+        <v>0.04666320125982015</v>
       </c>
     </row>
     <row r="11">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6581809868903169</v>
+        <v>0.6613456539497846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06711708149004159</v>
+        <v>0.07750905278855336</v>
       </c>
     </row>
     <row r="12">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8703739999999999</v>
+        <v>0.874104</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02190526737512032</v>
+        <v>0.02408240072106176</v>
       </c>
     </row>
     <row r="13">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7711506318383939</v>
+        <v>0.7773466853498074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04140168544504407</v>
+        <v>0.04666320125982015</v>
       </c>
     </row>
   </sheetData>
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7166039218091727</v>
+        <v>0.7214059897225265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05816414242345515</v>
+        <v>0.0532392516660679</v>
       </c>
     </row>
     <row r="3">
@@ -936,10 +936,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8828952979463583</v>
+        <v>0.8876848838514196</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0207246742576501</v>
+        <v>0.02593447855321011</v>
       </c>
     </row>
     <row r="4">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9162144333431383</v>
+        <v>0.9088277478061438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05178125189673163</v>
+        <v>0.05669405501788487</v>
       </c>
     </row>
     <row r="5">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5860527119938884</v>
+        <v>0.6125289024700789</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07498108041251401</v>
+        <v>0.09511275833412092</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9816860000000002</v>
+        <v>0.979108</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01230384061492796</v>
+        <v>0.01379959833783992</v>
       </c>
     </row>
     <row r="7">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7118129802918469</v>
+        <v>0.7275418970355019</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06032108783675554</v>
+        <v>0.074489981792056</v>
       </c>
     </row>
     <row r="8">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8728526110060514</v>
+        <v>0.8788986172812676</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02469578407620115</v>
+        <v>0.03011668094895138</v>
       </c>
     </row>
     <row r="9">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8191327281034668</v>
+        <v>0.8283478791104728</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03620395238417493</v>
+        <v>0.04482266967727443</v>
       </c>
     </row>
     <row r="10">
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7838686314009551</v>
+        <v>0.7958174164115089</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03731442701659643</v>
+        <v>0.04805861153055179</v>
       </c>
     </row>
     <row r="11">
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6702742371434721</v>
+        <v>0.6836952594375814</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06232657367273083</v>
+        <v>0.07765960222975032</v>
       </c>
     </row>
     <row r="12">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8774120000000001</v>
+        <v>0.8844540000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02050567507311285</v>
+        <v>0.02548602025761238</v>
       </c>
     </row>
     <row r="13">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7838686314009551</v>
+        <v>0.7958174164115089</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03731442701659644</v>
+        <v>0.04805861153055178</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7081881542500058</v>
+        <v>0.7041235999565607</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06710906190677686</v>
+        <v>0.06649094686717673</v>
       </c>
     </row>
     <row r="3">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9018684771630567</v>
+        <v>0.904703175850073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02271685709183075</v>
+        <v>0.02045050563116494</v>
       </c>
     </row>
     <row r="4">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9080310395210767</v>
+        <v>0.9102850586764899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05049617864427519</v>
+        <v>0.05464423477679217</v>
       </c>
     </row>
     <row r="5">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6764180035650624</v>
+        <v>0.6872465516509634</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07573735577014686</v>
+        <v>0.06988049368272724</v>
       </c>
     </row>
     <row r="6">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9769040000000001</v>
+        <v>0.9769239999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01281231805246618</v>
+        <v>0.01437884727575864</v>
       </c>
     </row>
     <row r="7">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7730377436501387</v>
+        <v>0.7809453002911786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05764835795845773</v>
+        <v>0.05245651392094138</v>
       </c>
     </row>
     <row r="8">
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8963208909614581</v>
+        <v>0.8996581769135537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02521461097343593</v>
+        <v>0.0224380259920453</v>
       </c>
     </row>
     <row r="9">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8551957798059526</v>
+        <v>0.8599938023002706</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03577503278290932</v>
+        <v>0.03240292840598669</v>
       </c>
     </row>
     <row r="10">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8266600880676304</v>
+        <v>0.8320840411457112</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03912679502461085</v>
+        <v>0.03568037894239338</v>
       </c>
     </row>
     <row r="11">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7264418697436702</v>
+        <v>0.7348810412912948</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0659451253443719</v>
+        <v>0.06081999668218552</v>
       </c>
     </row>
     <row r="12">
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9011600000000002</v>
+        <v>0.9042680000000002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02195575327882913</v>
+        <v>0.01957972128796234</v>
       </c>
     </row>
     <row r="13">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8266600880676304</v>
+        <v>0.8320840411457112</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03912679502461085</v>
+        <v>0.03568037894239338</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7177045129493921</v>
+        <v>0.7194075060401984</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05757162372036493</v>
+        <v>0.04687961694863366</v>
       </c>
     </row>
     <row r="3">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8766288856469531</v>
+        <v>0.8775187969924813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02153158049033295</v>
+        <v>0.02052786939068589</v>
       </c>
     </row>
     <row r="4">
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.946099700418485</v>
+        <v>0.9498015990799407</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05069157786889699</v>
+        <v>0.04139570896631687</v>
       </c>
     </row>
     <row r="5">
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5391480137509549</v>
+        <v>0.5378878490790255</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08964580605000029</v>
+        <v>0.08115170617110701</v>
       </c>
     </row>
     <row r="6">
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.98885</v>
+        <v>0.990246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01114176276677171</v>
+        <v>0.008868430825468641</v>
       </c>
     </row>
     <row r="7">
@@ -1456,10 +1456,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6814945327920436</v>
+        <v>0.6830611764451118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0713373477375791</v>
+        <v>0.06889652147873214</v>
       </c>
     </row>
     <row r="8">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8630165456875976</v>
+        <v>0.8639790153571043</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02739465197352053</v>
+        <v>0.02585274267115796</v>
       </c>
     </row>
     <row r="9">
@@ -1488,10 +1488,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8024443989910796</v>
+        <v>0.8035261877487397</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04170823632545008</v>
+        <v>0.04017388151711887</v>
       </c>
     </row>
     <row r="10">
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7639985799210172</v>
+        <v>0.7640663961264074</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04310372422654832</v>
+        <v>0.04038008586937003</v>
       </c>
     </row>
     <row r="11">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6530659356741821</v>
+        <v>0.6551108006471744</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06390048121266649</v>
+        <v>0.06349076942072276</v>
       </c>
     </row>
     <row r="12">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.866472</v>
+        <v>0.8663099999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02306317003893649</v>
+        <v>0.02012039527749018</v>
       </c>
     </row>
     <row r="13">
@@ -1552,10 +1552,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7639985799210172</v>
+        <v>0.7640663961264074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04310372422654831</v>
+        <v>0.04038008586937002</v>
       </c>
     </row>
   </sheetData>
